--- a/kaggle3/list_categories_dataset_draft.xlsx
+++ b/kaggle3/list_categories_dataset_draft.xlsx
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>12248</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -705,13 +705,13 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>651</v>
+        <v>621</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="G3">
         <v>15</v>
@@ -725,16 +725,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G4">
         <v>14</v>
@@ -748,16 +748,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G5">
         <v>24</v>
@@ -771,19 +771,19 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -794,19 +794,19 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="G7">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -820,13 +820,13 @@
         <v>53</v>
       </c>
       <c r="D8">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G8">
         <v>22</v>
@@ -843,13 +843,13 @@
         <v>36</v>
       </c>
       <c r="D9">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -866,13 +866,13 @@
         <v>46</v>
       </c>
       <c r="D10">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G10">
         <v>20</v>
@@ -909,16 +909,16 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G12">
         <v>28</v>
@@ -958,13 +958,13 @@
         <v>36</v>
       </c>
       <c r="D14">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E14">
         <v>6</v>
       </c>
       <c r="F14">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -981,16 +981,16 @@
         <v>54</v>
       </c>
       <c r="D15">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E15">
         <v>9</v>
       </c>
       <c r="F15">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G15">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1004,16 +1004,16 @@
         <v>39</v>
       </c>
       <c r="D16">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
       <c r="F16">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G16">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1024,7 +1024,7 @@
         <v>37</v>
       </c>
       <c r="C17">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1033,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G17">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1059,7 +1059,7 @@
         <v>144</v>
       </c>
       <c r="G18">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1073,13 +1073,13 @@
         <v>37</v>
       </c>
       <c r="D19">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G19">
         <v>16</v>
@@ -1096,13 +1096,13 @@
         <v>95</v>
       </c>
       <c r="D20">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G20">
         <v>41</v>
@@ -1142,13 +1142,13 @@
         <v>148</v>
       </c>
       <c r="D22">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="E22">
         <v>5</v>
       </c>
       <c r="F22">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G22">
         <v>64</v>
@@ -1165,13 +1165,13 @@
         <v>133</v>
       </c>
       <c r="D23">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G23">
         <v>57</v>
@@ -1211,13 +1211,13 @@
         <v>32</v>
       </c>
       <c r="D25">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G25">
         <v>14</v>
@@ -1231,16 +1231,16 @@
         <v>55</v>
       </c>
       <c r="C26">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D26">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
       <c r="F26">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G26">
         <v>59</v>
@@ -1257,13 +1257,13 @@
         <v>94</v>
       </c>
       <c r="D27">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G27">
         <v>41</v>
@@ -1280,13 +1280,13 @@
         <v>62</v>
       </c>
       <c r="D28">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G28">
         <v>28</v>
@@ -1303,13 +1303,13 @@
         <v>37</v>
       </c>
       <c r="D29">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G29">
         <v>16</v>
@@ -1372,13 +1372,13 @@
         <v>46</v>
       </c>
       <c r="D32">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G32">
         <v>20</v>
@@ -1392,7 +1392,7 @@
         <v>69</v>
       </c>
       <c r="C33">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33">
         <v>79</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G33">
         <v>35</v>
@@ -1415,7 +1415,7 @@
         <v>71</v>
       </c>
       <c r="C34">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34">
         <v>152</v>
@@ -1424,7 +1424,7 @@
         <v>3</v>
       </c>
       <c r="F34">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G34">
         <v>26</v>
@@ -1441,13 +1441,13 @@
         <v>57</v>
       </c>
       <c r="D35">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
       <c r="F35">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G35">
         <v>24</v>
@@ -1487,13 +1487,13 @@
         <v>82</v>
       </c>
       <c r="D37">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G37">
         <v>35</v>
@@ -1510,13 +1510,13 @@
         <v>129</v>
       </c>
       <c r="D38">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E38">
         <v>5</v>
       </c>
       <c r="F38">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G38">
         <v>55</v>
@@ -1533,13 +1533,13 @@
         <v>41</v>
       </c>
       <c r="D39">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G39">
         <v>18</v>
@@ -1556,13 +1556,13 @@
         <v>68</v>
       </c>
       <c r="D40">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G40">
         <v>30</v>
@@ -1576,16 +1576,16 @@
         <v>85</v>
       </c>
       <c r="C41">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F41">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="G41">
         <v>16</v>
@@ -1599,16 +1599,16 @@
         <v>87</v>
       </c>
       <c r="C42">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D42">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="E42">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F42">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="G42">
         <v>16</v>
@@ -1625,13 +1625,13 @@
         <v>44</v>
       </c>
       <c r="D43">
-        <v>2998</v>
+        <v>2990</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G43">
         <v>19</v>
@@ -1648,13 +1648,13 @@
         <v>37</v>
       </c>
       <c r="D44">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E44">
         <v>18</v>
       </c>
       <c r="F44">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G44">
         <v>16</v>
@@ -1694,13 +1694,13 @@
         <v>40</v>
       </c>
       <c r="D46">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G46">
         <v>17</v>
@@ -1714,16 +1714,16 @@
         <v>97</v>
       </c>
       <c r="C47">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
       <c r="F47">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -1740,16 +1740,16 @@
         <v>52</v>
       </c>
       <c r="D48">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G48">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1763,13 +1763,13 @@
         <v>67</v>
       </c>
       <c r="D49">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E49">
         <v>13</v>
       </c>
       <c r="F49">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G49">
         <v>29</v>

--- a/kaggle3/list_categories_dataset_draft.xlsx
+++ b/kaggle3/list_categories_dataset_draft.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="130">
   <si>
     <t xml:space="preserve">Total number of sounds in final dataset</t>
   </si>
@@ -34,15 +34,24 @@
     <t xml:space="preserve">num dev HQ</t>
   </si>
   <si>
-    <t xml:space="preserve">num dev LQ</t>
+    <t xml:space="preserve">num dev LQ (initially)</t>
   </si>
   <si>
     <t xml:space="preserve">num dev final</t>
   </si>
   <si>
+    <t xml:space="preserve">of which dev LQ is:</t>
+  </si>
+  <si>
     <t xml:space="preserve">num eval</t>
   </si>
   <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manual verified examples in each category</t>
+  </si>
+  <si>
     <t xml:space="preserve">num dev LQ prior</t>
   </si>
   <si>
@@ -334,40 +343,73 @@
     <t xml:space="preserve">/m/02yds9</t>
   </si>
   <si>
-    <t xml:space="preserve">total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total HQ</t>
+    <t xml:space="preserve">total check</t>
   </si>
   <si>
     <t xml:space="preserve">min</t>
   </si>
   <si>
-    <t xml:space="preserve">in per respect to all data</t>
-  </si>
-  <si>
     <t xml:space="preserve">max</t>
   </si>
   <si>
     <t xml:space="preserve">median</t>
   </si>
   <si>
+    <t xml:space="preserve">total HQ in the dataset</t>
+  </si>
+  <si>
     <t xml:space="preserve">categories in grey: most of them, 33</t>
   </si>
   <si>
+    <t xml:space="preserve">in percentage respect to WHOLE dataset</t>
+  </si>
+  <si>
     <t xml:space="preserve">leveraging large subsets of data with less reliable annotations, and bootstrapping these using a smaller subset with reliable annotations</t>
   </si>
   <si>
+    <t xml:space="preserve">total LQ in the dataset</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 categories in green:</t>
   </si>
   <si>
+    <t xml:space="preserve">sum</t>
+  </si>
+  <si>
     <t xml:space="preserve">leveraging a comparable amount of HQ and LQ annotations</t>
   </si>
   <si>
     <t xml:space="preserve">5 remaining categories</t>
   </si>
   <si>
+    <t xml:space="preserve">eval set with respect to WHOLE dataset</t>
+  </si>
+  <si>
     <t xml:space="preserve">mostly HQ: only a few LQ (that should be removed for clarity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ portion in dev w resp to WHOLE dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all LQ in WHOLE dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this numbers are subject to minor changes due to failures in the final conversion to PCM 16 bit 44.100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dev set with respecto to WHOLE dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summed with eval set with respect to whole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ portion within the dev set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQ portion within dev set</t>
   </si>
 </sst>
 </file>
@@ -409,7 +451,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,8 +472,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC66FF"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900FF"/>
+        <bgColor rgb="FF800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF66"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor rgb="FF99FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -469,7 +547,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -486,7 +564,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,7 +628,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -513,16 +639,16 @@
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF9900FF"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF6666"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -537,9 +663,9 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF66"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF66FFFF"/>
       <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFCC66FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33FF99"/>
@@ -567,22 +693,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I54" activeCellId="0" sqref="I54"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="81.5357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7295918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="45.984693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,16 +741,25 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>38</v>
@@ -629,26 +767,34 @@
       <c r="D3" s="2" t="n">
         <v>621</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="0" t="n">
         <v>272</v>
       </c>
       <c r="F3" s="0" t="n">
+        <f aca="false">E3-C3</f>
+        <v>234</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">SUM(E3:F3)</f>
+      <c r="H3" s="0" t="n">
+        <f aca="false">SUM(E3,G3)</f>
         <v>287</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="J3" s="0" t="n">
+        <f aca="false">C3+G3</f>
+        <v>53</v>
+      </c>
+      <c r="O3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>29</v>
@@ -656,26 +802,34 @@
       <c r="D4" s="2" t="n">
         <v>278</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="0" t="n">
         <v>282</v>
       </c>
       <c r="F4" s="0" t="n">
+        <f aca="false">E4-C4</f>
+        <v>253</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">SUM(E4:F4)</f>
+      <c r="H4" s="0" t="n">
+        <f aca="false">SUM(E4,G4)</f>
         <v>296</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="J4" s="0" t="n">
+        <f aca="false">C4+G4</f>
+        <v>43</v>
+      </c>
+      <c r="O4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>55</v>
@@ -683,26 +837,34 @@
       <c r="D5" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="0" t="n">
         <v>113</v>
       </c>
       <c r="F5" s="0" t="n">
+        <f aca="false">E5-C5</f>
+        <v>58</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">SUM(E5:F5)</f>
+      <c r="H5" s="0" t="n">
+        <f aca="false">SUM(E5,G5)</f>
         <v>137</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="J5" s="0" t="n">
+        <f aca="false">C5+G5</f>
+        <v>79</v>
+      </c>
+      <c r="O5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>39</v>
@@ -710,26 +872,34 @@
       <c r="D6" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="0" t="n">
         <v>94</v>
       </c>
       <c r="F6" s="0" t="n">
+        <f aca="false">E6-C6</f>
+        <v>55</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">SUM(E6:F6)</f>
+      <c r="H6" s="0" t="n">
+        <f aca="false">SUM(E6,G6)</f>
         <v>111</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="J6" s="0" t="n">
+        <f aca="false">C6+G6</f>
+        <v>56</v>
+      </c>
+      <c r="O6" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>61</v>
@@ -737,26 +907,34 @@
       <c r="D7" s="2" t="n">
         <v>203</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="0" t="n">
         <v>264</v>
       </c>
       <c r="F7" s="0" t="n">
+        <f aca="false">E7-C7</f>
+        <v>203</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">SUM(E7:F7)</f>
+      <c r="H7" s="0" t="n">
+        <f aca="false">SUM(E7,G7)</f>
         <v>291</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="J7" s="0" t="n">
+        <f aca="false">C7+G7</f>
+        <v>88</v>
+      </c>
+      <c r="O7" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>53</v>
@@ -764,26 +942,34 @@
       <c r="D8" s="2" t="n">
         <v>408</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="0" t="n">
         <v>292</v>
       </c>
       <c r="F8" s="0" t="n">
+        <f aca="false">E8-C8</f>
+        <v>239</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">SUM(E8:F8)</f>
+      <c r="H8" s="0" t="n">
+        <f aca="false">SUM(E8,G8)</f>
         <v>314</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="J8" s="0" t="n">
+        <f aca="false">C8+G8</f>
+        <v>75</v>
+      </c>
+      <c r="O8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>36</v>
@@ -791,26 +977,34 @@
       <c r="D9" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="0" t="n">
         <v>98</v>
       </c>
       <c r="F9" s="0" t="n">
+        <f aca="false">E9-C9</f>
+        <v>62</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">SUM(E9:F9)</f>
+      <c r="H9" s="0" t="n">
+        <f aca="false">SUM(E9,G9)</f>
         <v>113</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="J9" s="0" t="n">
+        <f aca="false">C9+G9</f>
+        <v>51</v>
+      </c>
+      <c r="O9" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>46</v>
@@ -818,26 +1012,34 @@
       <c r="D10" s="2" t="n">
         <v>552</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="0" t="n">
         <v>298</v>
       </c>
       <c r="F10" s="0" t="n">
+        <f aca="false">E10-C10</f>
+        <v>252</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">SUM(E10:F10)</f>
+      <c r="H10" s="0" t="n">
+        <f aca="false">SUM(E10,G10)</f>
         <v>318</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="J10" s="0" t="n">
+        <f aca="false">C10+G10</f>
+        <v>66</v>
+      </c>
+      <c r="O10" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>157</v>
@@ -849,22 +1051,30 @@
         <v>159</v>
       </c>
       <c r="F11" s="0" t="n">
+        <f aca="false">E11-C11</f>
+        <v>2</v>
+      </c>
+      <c r="G11" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">SUM(E11:F11)</f>
+      <c r="H11" s="0" t="n">
+        <f aca="false">SUM(E11,G11)</f>
         <v>226</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="J11" s="0" t="n">
+        <f aca="false">C11+G11</f>
+        <v>224</v>
+      </c>
+      <c r="O11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>63</v>
@@ -876,22 +1086,30 @@
         <v>295</v>
       </c>
       <c r="F12" s="0" t="n">
+        <f aca="false">E12-C12</f>
+        <v>232</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">SUM(E12:F12)</f>
+      <c r="H12" s="0" t="n">
+        <f aca="false">SUM(E12,G12)</f>
         <v>323</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="J12" s="0" t="n">
+        <f aca="false">C12+G12</f>
+        <v>91</v>
+      </c>
+      <c r="O12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>37</v>
@@ -903,22 +1121,30 @@
         <v>161</v>
       </c>
       <c r="F13" s="0" t="n">
+        <f aca="false">E13-C13</f>
+        <v>124</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">SUM(E13:F13)</f>
+      <c r="H13" s="0" t="n">
+        <f aca="false">SUM(E13,G13)</f>
         <v>177</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="J13" s="0" t="n">
+        <f aca="false">C13+G13</f>
+        <v>53</v>
+      </c>
+      <c r="O13" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>36</v>
@@ -930,22 +1156,30 @@
         <v>122</v>
       </c>
       <c r="F14" s="0" t="n">
+        <f aca="false">E14-C14</f>
+        <v>86</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <f aca="false">SUM(E14:F14)</f>
+      <c r="H14" s="0" t="n">
+        <f aca="false">SUM(E14,G14)</f>
         <v>138</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="J14" s="0" t="n">
+        <f aca="false">C14+G14</f>
+        <v>52</v>
+      </c>
+      <c r="O14" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>54</v>
@@ -957,22 +1191,30 @@
         <v>204</v>
       </c>
       <c r="F15" s="0" t="n">
+        <f aca="false">E15-C15</f>
+        <v>150</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <f aca="false">SUM(E15:F15)</f>
+      <c r="H15" s="0" t="n">
+        <f aca="false">SUM(E15,G15)</f>
         <v>226</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="J15" s="0" t="n">
+        <f aca="false">C15+G15</f>
+        <v>76</v>
+      </c>
+      <c r="O15" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>39</v>
@@ -984,22 +1226,30 @@
         <v>290</v>
       </c>
       <c r="F16" s="0" t="n">
+        <f aca="false">E16-C16</f>
+        <v>251</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G16" s="0" t="n">
-        <f aca="false">SUM(E16:F16)</f>
+      <c r="H16" s="0" t="n">
+        <f aca="false">SUM(E16,G16)</f>
         <v>306</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="J16" s="0" t="n">
+        <f aca="false">C16+G16</f>
+        <v>55</v>
+      </c>
+      <c r="O16" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>103</v>
@@ -1011,22 +1261,30 @@
         <v>104</v>
       </c>
       <c r="F17" s="0" t="n">
+        <f aca="false">E17-C17</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="G17" s="0" t="n">
-        <f aca="false">SUM(E17:F17)</f>
+      <c r="H17" s="0" t="n">
+        <f aca="false">SUM(E17,G17)</f>
         <v>147</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="J17" s="0" t="n">
+        <f aca="false">C17+G17</f>
+        <v>146</v>
+      </c>
+      <c r="O17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>135</v>
@@ -1038,22 +1296,30 @@
         <v>144</v>
       </c>
       <c r="F18" s="0" t="n">
+        <f aca="false">E18-C18</f>
+        <v>9</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="G18" s="0" t="n">
-        <f aca="false">SUM(E18:F18)</f>
+      <c r="H18" s="0" t="n">
+        <f aca="false">SUM(E18,G18)</f>
         <v>202</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="J18" s="0" t="n">
+        <f aca="false">C18+G18</f>
+        <v>193</v>
+      </c>
+      <c r="O18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>37</v>
@@ -1065,22 +1331,30 @@
         <v>293</v>
       </c>
       <c r="F19" s="0" t="n">
+        <f aca="false">E19-C19</f>
+        <v>256</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G19" s="0" t="n">
-        <f aca="false">SUM(E19:F19)</f>
+      <c r="H19" s="0" t="n">
+        <f aca="false">SUM(E19,G19)</f>
         <v>309</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="J19" s="0" t="n">
+        <f aca="false">C19+G19</f>
+        <v>53</v>
+      </c>
+      <c r="O19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>95</v>
@@ -1092,22 +1366,30 @@
         <v>195</v>
       </c>
       <c r="F20" s="0" t="n">
+        <f aca="false">E20-C20</f>
+        <v>100</v>
+      </c>
+      <c r="G20" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="G20" s="0" t="n">
-        <f aca="false">SUM(E20:F20)</f>
+      <c r="H20" s="0" t="n">
+        <f aca="false">SUM(E20,G20)</f>
         <v>236</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="J20" s="0" t="n">
+        <f aca="false">C20+G20</f>
+        <v>136</v>
+      </c>
+      <c r="O20" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>99</v>
@@ -1119,22 +1401,30 @@
         <v>300</v>
       </c>
       <c r="F21" s="0" t="n">
+        <f aca="false">E21-C21</f>
+        <v>201</v>
+      </c>
+      <c r="G21" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="G21" s="0" t="n">
-        <f aca="false">SUM(E21:F21)</f>
+      <c r="H21" s="0" t="n">
+        <f aca="false">SUM(E21,G21)</f>
         <v>342</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="J21" s="0" t="n">
+        <f aca="false">C21+G21</f>
+        <v>141</v>
+      </c>
+      <c r="O21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>148</v>
@@ -1146,22 +1436,30 @@
         <v>295</v>
       </c>
       <c r="F22" s="0" t="n">
+        <f aca="false">E22-C22</f>
+        <v>147</v>
+      </c>
+      <c r="G22" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <f aca="false">SUM(E22:F22)</f>
+      <c r="H22" s="0" t="n">
+        <f aca="false">SUM(E22,G22)</f>
         <v>359</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="J22" s="0" t="n">
+        <f aca="false">C22+G22</f>
+        <v>212</v>
+      </c>
+      <c r="O22" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>133</v>
@@ -1173,22 +1471,30 @@
         <v>296</v>
       </c>
       <c r="F23" s="0" t="n">
+        <f aca="false">E23-C23</f>
+        <v>163</v>
+      </c>
+      <c r="G23" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="G23" s="0" t="n">
-        <f aca="false">SUM(E23:F23)</f>
+      <c r="H23" s="0" t="n">
+        <f aca="false">SUM(E23,G23)</f>
         <v>353</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="J23" s="0" t="n">
+        <f aca="false">C23+G23</f>
+        <v>190</v>
+      </c>
+      <c r="O23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>134</v>
@@ -1200,22 +1506,30 @@
         <v>134</v>
       </c>
       <c r="F24" s="0" t="n">
+        <f aca="false">E24-C24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="G24" s="0" t="n">
-        <f aca="false">SUM(E24:F24)</f>
+      <c r="H24" s="0" t="n">
+        <f aca="false">SUM(E24,G24)</f>
         <v>192</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="J24" s="0" t="n">
+        <f aca="false">C24+G24</f>
+        <v>192</v>
+      </c>
+      <c r="O24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>32</v>
@@ -1227,22 +1541,30 @@
         <v>292</v>
       </c>
       <c r="F25" s="0" t="n">
+        <f aca="false">E25-C25</f>
+        <v>260</v>
+      </c>
+      <c r="G25" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G25" s="0" t="n">
-        <f aca="false">SUM(E25:F25)</f>
+      <c r="H25" s="0" t="n">
+        <f aca="false">SUM(E25,G25)</f>
         <v>306</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="J25" s="0" t="n">
+        <f aca="false">C25+G25</f>
+        <v>46</v>
+      </c>
+      <c r="O25" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>131</v>
@@ -1254,22 +1576,30 @@
         <v>294</v>
       </c>
       <c r="F26" s="0" t="n">
+        <f aca="false">E26-C26</f>
+        <v>163</v>
+      </c>
+      <c r="G26" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="G26" s="0" t="n">
-        <f aca="false">SUM(E26:F26)</f>
+      <c r="H26" s="0" t="n">
+        <f aca="false">SUM(E26,G26)</f>
         <v>353</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="J26" s="0" t="n">
+        <f aca="false">C26+G26</f>
+        <v>190</v>
+      </c>
+      <c r="O26" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>94</v>
@@ -1281,22 +1611,30 @@
         <v>241</v>
       </c>
       <c r="F27" s="0" t="n">
+        <f aca="false">E27-C27</f>
+        <v>147</v>
+      </c>
+      <c r="G27" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="G27" s="0" t="n">
-        <f aca="false">SUM(E27:F27)</f>
+      <c r="H27" s="0" t="n">
+        <f aca="false">SUM(E27,G27)</f>
         <v>282</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="J27" s="0" t="n">
+        <f aca="false">C27+G27</f>
+        <v>135</v>
+      </c>
+      <c r="O27" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>62</v>
@@ -1308,22 +1646,30 @@
         <v>112</v>
       </c>
       <c r="F28" s="0" t="n">
+        <f aca="false">E28-C28</f>
+        <v>50</v>
+      </c>
+      <c r="G28" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G28" s="0" t="n">
-        <f aca="false">SUM(E28:F28)</f>
+      <c r="H28" s="0" t="n">
+        <f aca="false">SUM(E28,G28)</f>
         <v>140</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="J28" s="0" t="n">
+        <f aca="false">C28+G28</f>
+        <v>90</v>
+      </c>
+      <c r="O28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>37</v>
@@ -1335,22 +1681,30 @@
         <v>298</v>
       </c>
       <c r="F29" s="0" t="n">
+        <f aca="false">E29-C29</f>
+        <v>261</v>
+      </c>
+      <c r="G29" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G29" s="0" t="n">
-        <f aca="false">SUM(E29:F29)</f>
+      <c r="H29" s="0" t="n">
+        <f aca="false">SUM(E29,G29)</f>
         <v>314</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="J29" s="0" t="n">
+        <f aca="false">C29+G29</f>
+        <v>53</v>
+      </c>
+      <c r="O29" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>35</v>
@@ -1362,22 +1716,30 @@
         <v>118</v>
       </c>
       <c r="F30" s="0" t="n">
+        <f aca="false">E30-C30</f>
+        <v>83</v>
+      </c>
+      <c r="G30" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G30" s="0" t="n">
-        <f aca="false">SUM(E30:F30)</f>
+      <c r="H30" s="0" t="n">
+        <f aca="false">SUM(E30,G30)</f>
         <v>133</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="J30" s="0" t="n">
+        <f aca="false">C30+G30</f>
+        <v>50</v>
+      </c>
+      <c r="O30" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>82</v>
@@ -1389,22 +1751,30 @@
         <v>300</v>
       </c>
       <c r="F31" s="0" t="n">
+        <f aca="false">E31-C31</f>
+        <v>218</v>
+      </c>
+      <c r="G31" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="G31" s="0" t="n">
-        <f aca="false">SUM(E31:F31)</f>
+      <c r="H31" s="0" t="n">
+        <f aca="false">SUM(E31,G31)</f>
         <v>335</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="J31" s="0" t="n">
+        <f aca="false">C31+G31</f>
+        <v>117</v>
+      </c>
+      <c r="O31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>46</v>
@@ -1416,22 +1786,30 @@
         <v>296</v>
       </c>
       <c r="F32" s="0" t="n">
+        <f aca="false">E32-C32</f>
+        <v>250</v>
+      </c>
+      <c r="G32" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G32" s="0" t="n">
-        <f aca="false">SUM(E32:F32)</f>
+      <c r="H32" s="0" t="n">
+        <f aca="false">SUM(E32,G32)</f>
         <v>316</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="J32" s="0" t="n">
+        <f aca="false">C32+G32</f>
+        <v>66</v>
+      </c>
+      <c r="O32" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>79</v>
@@ -1443,22 +1821,30 @@
         <v>158</v>
       </c>
       <c r="F33" s="0" t="n">
+        <f aca="false">E33-C33</f>
+        <v>79</v>
+      </c>
+      <c r="G33" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="G33" s="0" t="n">
-        <f aca="false">SUM(E33:F33)</f>
+      <c r="H33" s="0" t="n">
+        <f aca="false">SUM(E33,G33)</f>
         <v>193</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="J33" s="0" t="n">
+        <f aca="false">C33+G33</f>
+        <v>114</v>
+      </c>
+      <c r="O33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>58</v>
@@ -1470,22 +1856,30 @@
         <v>210</v>
       </c>
       <c r="F34" s="0" t="n">
+        <f aca="false">E34-C34</f>
+        <v>152</v>
+      </c>
+      <c r="G34" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G34" s="0" t="n">
-        <f aca="false">SUM(E34:F34)</f>
+      <c r="H34" s="0" t="n">
+        <f aca="false">SUM(E34,G34)</f>
         <v>236</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="J34" s="0" t="n">
+        <f aca="false">C34+G34</f>
+        <v>84</v>
+      </c>
+      <c r="O34" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>57</v>
@@ -1497,22 +1891,30 @@
         <v>292</v>
       </c>
       <c r="F35" s="0" t="n">
+        <f aca="false">E35-C35</f>
+        <v>235</v>
+      </c>
+      <c r="G35" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G35" s="0" t="n">
-        <f aca="false">SUM(E35:F35)</f>
+      <c r="H35" s="0" t="n">
+        <f aca="false">SUM(E35,G35)</f>
         <v>316</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="J35" s="0" t="n">
+        <f aca="false">C35+G35</f>
+        <v>81</v>
+      </c>
+      <c r="O35" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>117</v>
@@ -1524,22 +1926,30 @@
         <v>117</v>
       </c>
       <c r="F36" s="0" t="n">
+        <f aca="false">E36-C36</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G36" s="0" t="n">
-        <f aca="false">SUM(E36:F36)</f>
+      <c r="H36" s="0" t="n">
+        <f aca="false">SUM(E36,G36)</f>
         <v>167</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="J36" s="0" t="n">
+        <f aca="false">C36+G36</f>
+        <v>167</v>
+      </c>
+      <c r="O36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>82</v>
@@ -1551,22 +1961,30 @@
         <v>299</v>
       </c>
       <c r="F37" s="0" t="n">
+        <f aca="false">E37-C37</f>
+        <v>217</v>
+      </c>
+      <c r="G37" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="G37" s="0" t="n">
-        <f aca="false">SUM(E37:F37)</f>
+      <c r="H37" s="0" t="n">
+        <f aca="false">SUM(E37,G37)</f>
         <v>334</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="J37" s="0" t="n">
+        <f aca="false">C37+G37</f>
+        <v>117</v>
+      </c>
+      <c r="O37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>129</v>
@@ -1578,22 +1996,30 @@
         <v>299</v>
       </c>
       <c r="F38" s="0" t="n">
+        <f aca="false">E38-C38</f>
+        <v>170</v>
+      </c>
+      <c r="G38" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="G38" s="0" t="n">
-        <f aca="false">SUM(E38:F38)</f>
+      <c r="H38" s="0" t="n">
+        <f aca="false">SUM(E38,G38)</f>
         <v>354</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="J38" s="0" t="n">
+        <f aca="false">C38+G38</f>
+        <v>184</v>
+      </c>
+      <c r="O38" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>41</v>
@@ -1605,22 +2031,30 @@
         <v>131</v>
       </c>
       <c r="F39" s="0" t="n">
+        <f aca="false">E39-C39</f>
+        <v>90</v>
+      </c>
+      <c r="G39" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G39" s="0" t="n">
-        <f aca="false">SUM(E39:F39)</f>
+      <c r="H39" s="0" t="n">
+        <f aca="false">SUM(E39,G39)</f>
         <v>149</v>
       </c>
-      <c r="L39" s="0" t="n">
+      <c r="J39" s="0" t="n">
+        <f aca="false">C39+G39</f>
+        <v>59</v>
+      </c>
+      <c r="O39" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>68</v>
@@ -1632,22 +2066,30 @@
         <v>299</v>
       </c>
       <c r="F40" s="0" t="n">
+        <f aca="false">E40-C40</f>
+        <v>231</v>
+      </c>
+      <c r="G40" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G40" s="0" t="n">
-        <f aca="false">SUM(E40:F40)</f>
+      <c r="H40" s="0" t="n">
+        <f aca="false">SUM(E40,G40)</f>
         <v>329</v>
       </c>
-      <c r="L40" s="0" t="n">
+      <c r="J40" s="0" t="n">
+        <f aca="false">C40+G40</f>
+        <v>98</v>
+      </c>
+      <c r="O40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>36</v>
@@ -1659,22 +2101,30 @@
         <v>96</v>
       </c>
       <c r="F41" s="0" t="n">
+        <f aca="false">E41-C41</f>
+        <v>60</v>
+      </c>
+      <c r="G41" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G41" s="0" t="n">
-        <f aca="false">SUM(E41:F41)</f>
+      <c r="H41" s="0" t="n">
+        <f aca="false">SUM(E41,G41)</f>
         <v>112</v>
       </c>
-      <c r="L41" s="0" t="n">
+      <c r="J41" s="0" t="n">
+        <f aca="false">C41+G41</f>
+        <v>52</v>
+      </c>
+      <c r="O41" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>37</v>
@@ -1686,22 +2136,30 @@
         <v>136</v>
       </c>
       <c r="F42" s="0" t="n">
+        <f aca="false">E42-C42</f>
+        <v>99</v>
+      </c>
+      <c r="G42" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G42" s="0" t="n">
-        <f aca="false">SUM(E42:F42)</f>
+      <c r="H42" s="0" t="n">
+        <f aca="false">SUM(E42,G42)</f>
         <v>152</v>
       </c>
-      <c r="L42" s="0" t="n">
+      <c r="J42" s="0" t="n">
+        <f aca="false">C42+G42</f>
+        <v>53</v>
+      </c>
+      <c r="O42" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>44</v>
@@ -1713,22 +2171,30 @@
         <v>292</v>
       </c>
       <c r="F43" s="0" t="n">
+        <f aca="false">E43-C43</f>
+        <v>248</v>
+      </c>
+      <c r="G43" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G43" s="0" t="n">
-        <f aca="false">SUM(E43:F43)</f>
+      <c r="H43" s="0" t="n">
+        <f aca="false">SUM(E43,G43)</f>
         <v>311</v>
       </c>
-      <c r="L43" s="0" t="n">
+      <c r="J43" s="0" t="n">
+        <f aca="false">C43+G43</f>
+        <v>63</v>
+      </c>
+      <c r="O43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>37</v>
@@ -1740,22 +2206,30 @@
         <v>296</v>
       </c>
       <c r="F44" s="0" t="n">
+        <f aca="false">E44-C44</f>
+        <v>259</v>
+      </c>
+      <c r="G44" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G44" s="0" t="n">
-        <f aca="false">SUM(E44:F44)</f>
+      <c r="H44" s="0" t="n">
+        <f aca="false">SUM(E44,G44)</f>
         <v>312</v>
       </c>
-      <c r="L44" s="0" t="n">
+      <c r="J44" s="0" t="n">
+        <f aca="false">C44+G44</f>
+        <v>53</v>
+      </c>
+      <c r="O44" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>65</v>
@@ -1767,22 +2241,30 @@
         <v>163</v>
       </c>
       <c r="F45" s="0" t="n">
+        <f aca="false">E45-C45</f>
+        <v>98</v>
+      </c>
+      <c r="G45" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G45" s="0" t="n">
-        <f aca="false">SUM(E45:F45)</f>
+      <c r="H45" s="0" t="n">
+        <f aca="false">SUM(E45,G45)</f>
         <v>191</v>
       </c>
-      <c r="L45" s="0" t="n">
+      <c r="J45" s="0" t="n">
+        <f aca="false">C45+G45</f>
+        <v>93</v>
+      </c>
+      <c r="O45" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>40</v>
@@ -1794,22 +2276,30 @@
         <v>295</v>
       </c>
       <c r="F46" s="0" t="n">
+        <f aca="false">E46-C46</f>
+        <v>255</v>
+      </c>
+      <c r="G46" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G46" s="0" t="n">
-        <f aca="false">SUM(E46:F46)</f>
+      <c r="H46" s="0" t="n">
+        <f aca="false">SUM(E46,G46)</f>
         <v>312</v>
       </c>
-      <c r="L46" s="0" t="n">
+      <c r="J46" s="0" t="n">
+        <f aca="false">C46+G46</f>
+        <v>57</v>
+      </c>
+      <c r="O46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>32</v>
@@ -1821,22 +2311,30 @@
         <v>292</v>
       </c>
       <c r="F47" s="0" t="n">
+        <f aca="false">E47-C47</f>
+        <v>260</v>
+      </c>
+      <c r="G47" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G47" s="0" t="n">
-        <f aca="false">SUM(E47:F47)</f>
+      <c r="H47" s="0" t="n">
+        <f aca="false">SUM(E47,G47)</f>
         <v>307</v>
       </c>
-      <c r="L47" s="0" t="n">
+      <c r="J47" s="0" t="n">
+        <f aca="false">C47+G47</f>
+        <v>47</v>
+      </c>
+      <c r="O47" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C48" s="3" t="n">
         <v>52</v>
@@ -1848,22 +2346,30 @@
         <v>134</v>
       </c>
       <c r="F48" s="0" t="n">
+        <f aca="false">E48-C48</f>
+        <v>82</v>
+      </c>
+      <c r="G48" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G48" s="0" t="n">
-        <f aca="false">SUM(E48:F48)</f>
+      <c r="H48" s="0" t="n">
+        <f aca="false">SUM(E48,G48)</f>
         <v>156</v>
       </c>
-      <c r="L48" s="0" t="n">
+      <c r="J48" s="0" t="n">
+        <f aca="false">C48+G48</f>
+        <v>74</v>
+      </c>
+      <c r="O48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>67</v>
@@ -1875,22 +2381,30 @@
         <v>297</v>
       </c>
       <c r="F49" s="0" t="n">
+        <f aca="false">E49-C49</f>
+        <v>230</v>
+      </c>
+      <c r="G49" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G49" s="0" t="n">
-        <f aca="false">SUM(E49:F49)</f>
+      <c r="H49" s="0" t="n">
+        <f aca="false">SUM(E49,G49)</f>
         <v>326</v>
       </c>
-      <c r="L49" s="0" t="n">
+      <c r="J49" s="0" t="n">
+        <f aca="false">C49+G49</f>
+        <v>96</v>
+      </c>
+      <c r="O49" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>28</v>
@@ -1902,156 +2416,437 @@
         <v>128</v>
       </c>
       <c r="F50" s="0" t="n">
+        <f aca="false">E50-C50</f>
+        <v>100</v>
+      </c>
+      <c r="G50" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G50" s="0" t="n">
-        <f aca="false">SUM(E50:F50)</f>
+      <c r="H50" s="0" t="n">
+        <f aca="false">SUM(E50,G50)</f>
         <v>140</v>
       </c>
-      <c r="L50" s="0" t="n">
+      <c r="J50" s="0" t="n">
+        <f aca="false">C50+G50</f>
+        <v>40</v>
+      </c>
+      <c r="O50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="0" t="n">
+      <c r="B51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="5" t="n">
         <f aca="false">SUM(C3:C50)</f>
         <v>3215</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="6" t="n">
         <f aca="false">SUM(D3:D50)</f>
         <v>29407</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="5" t="n">
         <f aca="false">SUM(E3:E50)</f>
         <v>10590</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51" s="5" t="n">
         <f aca="false">SUM(F3:F50)</f>
+        <v>7375</v>
+      </c>
+      <c r="G51" s="7" t="n">
+        <f aca="false">SUM(G3:G50)</f>
         <v>1389</v>
       </c>
-      <c r="G51" s="0" t="n">
-        <f aca="false">SUM(G3:G50)</f>
+      <c r="H51" s="8" t="n">
+        <f aca="false">SUM(E51,G51)</f>
         <v>11979</v>
       </c>
-      <c r="I51" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <f aca="false">SUM(C51,F51)</f>
-        <v>4604</v>
+      <c r="I51" s="9" t="n">
+        <f aca="false">SUM(H3:H50)</f>
+        <v>11979</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L52" s="0" t="n">
-        <f aca="false">MIN(L3:L50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="1" t="n">
-        <f aca="false">MIN(C3:C50)</f>
-        <v>28</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <f aca="false">MIN(D3:D50)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <f aca="false">MIN(E3:E50)</f>
-        <v>94</v>
-      </c>
-      <c r="F53" s="1" t="n">
-        <f aca="false">MIN(F3:F50)</f>
-        <v>12</v>
-      </c>
-      <c r="G53" s="4" t="n">
-        <f aca="false">MIN(G3:G50)</f>
-        <v>111</v>
-      </c>
-      <c r="I53" s="0" t="s">
+      <c r="B52" s="10"/>
+      <c r="C52" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J53" s="0" t="n">
-        <f aca="false">J51/G51</f>
-        <v>0.384339260372318</v>
-      </c>
-    </row>
+      <c r="O52" s="0" t="n">
+        <f aca="false">MIN(O3:O50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="1" t="n">
+      <c r="C54" s="1" t="n">
+        <f aca="false">MIN(C3:C50)</f>
+        <v>28</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <f aca="false">MIN(D3:D50)</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <f aca="false">MIN(E3:E50)</f>
+        <v>94</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <f aca="false">MIN(F3:F50)</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <f aca="false">MIN(G3:G50)</f>
+        <v>12</v>
+      </c>
+      <c r="H54" s="15" t="n">
+        <f aca="false">MIN(H3:H50)</f>
+        <v>111</v>
+      </c>
+      <c r="I54" s="15" t="n">
+        <f aca="false">MIN(I3:I50)</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="15" t="n">
+        <f aca="false">MIN(J3:J50)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <f aca="false">MAX(C3:C50)</f>
+        <v>157</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <f aca="false">MAX(D3:D50)</f>
+        <v>6875</v>
+      </c>
+      <c r="E55" s="1" t="n">
         <f aca="false">MAX(E3:E50)</f>
         <v>300</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F55" s="1" t="n">
         <f aca="false">MAX(F3:F50)</f>
+        <v>261</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <f aca="false">MAX(G3:G50)</f>
         <v>67</v>
       </c>
-      <c r="G54" s="4" t="n">
-        <f aca="false">MAX(G3:G50)</f>
+      <c r="H55" s="15" t="n">
+        <f aca="false">MAX(H3:H50)</f>
         <v>359</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="0" t="n">
+      <c r="I55" s="15" t="n">
+        <f aca="false">MAX(I3:I50)</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="15" t="n">
+        <f aca="false">MAX(J3:J50)</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="0" t="n">
         <f aca="false">MEDIAN(C3:C50)</f>
         <v>54.5</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D57" s="0" t="n">
         <f aca="false">MEDIAN(D3:D50)</f>
         <v>203.5</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E57" s="0" t="n">
         <f aca="false">MEDIAN(E3:E50)</f>
         <v>268</v>
       </c>
-      <c r="F56" s="0" t="n">
-        <f aca="false">MEDIAN(F3:F50)</f>
+      <c r="G57" s="0" t="n">
+        <f aca="false">MEDIAN(G3:G50)</f>
         <v>23</v>
       </c>
-      <c r="G56" s="0" t="n">
-        <f aca="false">MEDIAN(G3:G50)</f>
+      <c r="H57" s="0" t="n">
+        <f aca="false">MEDIAN(H3:H50)</f>
         <v>289</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J58" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <f aca="false">SUM(C51,G51)</f>
+        <v>4604</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <f aca="false">K58/H51</f>
+        <v>0.384339260372318</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <f aca="false">ROUND(K59*1000,0)/10</f>
+        <v>38.4</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <f aca="false">ROUND(K60*1000,0)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J61" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <f aca="false">F51</f>
+        <v>7375</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <f aca="false">ROUND(K61*1000,0)/10</f>
+        <v>737500</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J62" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <f aca="false">K61/H51</f>
+        <v>0.615660739627682</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <f aca="false">ROUND(K62*1000,0)/10</f>
+        <v>61.6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <f aca="false">SUM(K59,K62)</f>
+        <v>1</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <f aca="false">ROUND(K63*1000,0)/10</f>
+        <v>100</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <f aca="false">ROUND(K64*1000,0)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L65" s="0" t="n">
+        <f aca="false">ROUND(K65*1000,0)/10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K66" s="7" t="n">
+        <f aca="false">G51/H51</f>
+        <v>0.11595291760581</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <f aca="false">ROUND(K66*1000,0)/10</f>
+        <v>11.6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K67" s="5" t="n">
+        <f aca="false">C51/H51</f>
+        <v>0.268386342766508</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <f aca="false">ROUND(K67*1000,0)/10</f>
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J68" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <f aca="false">K66+K67</f>
+        <v>0.384339260372318</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <f aca="false">ROUND(K68*1000,0)/10</f>
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L69" s="0" t="n">
+        <f aca="false">ROUND(K69*1000,0)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J70" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <f aca="false">F51/H51</f>
+        <v>0.615660739627682</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <f aca="false">ROUND(K70*1000,0)/10</f>
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L71" s="0" t="n">
+        <f aca="false">ROUND(K71*1000,0)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <f aca="false">K66+K67+K70</f>
+        <v>1</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <f aca="false">ROUND(K72*1000,0)/10</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L73" s="0" t="n">
+        <f aca="false">ROUND(K73*1000,0)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L74" s="0" t="n">
+        <f aca="false">ROUND(K74*1000,0)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J75" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <f aca="false">E51/H51</f>
+        <v>0.88404708239419</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <f aca="false">ROUND(K75*1000,0)/10</f>
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J76" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <f aca="false">K75+K66</f>
+        <v>1</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <f aca="false">ROUND(K76*1000,0)/10</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L77" s="0" t="n">
+        <f aca="false">ROUND(K77*1000,0)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L78" s="0" t="n">
+        <f aca="false">ROUND(K78*1000,0)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J79" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K79" s="16" t="n">
+        <f aca="false">C51/E51</f>
+        <v>0.303588290840415</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <f aca="false">ROUND(K79*1000,0)/10</f>
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J80" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K80" s="16" t="n">
+        <f aca="false">F51/E51</f>
+        <v>0.696411709159584</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <f aca="false">ROUND(K80*1000,0)/10</f>
+        <v>69.6</v>
       </c>
     </row>
   </sheetData>

--- a/kaggle3/list_categories_dataset_draft.xlsx
+++ b/kaggle3/list_categories_dataset_draft.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Total number of sounds in final dataset</t>
   </si>
@@ -40,10 +40,16 @@
     <t>num eval</t>
   </si>
   <si>
-    <t>Source-ambiguous sounds &gt; Onomatopoeia &gt; Brief tone</t>
-  </si>
-  <si>
-    <t>/t/dd000138</t>
+    <t>Source-ambiguous sounds &gt; Deformable shell</t>
+  </si>
+  <si>
+    <t>/t/dd00110</t>
+  </si>
+  <si>
+    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Car &gt; Vehicle horn, car horn, honking (MULTIPLE PARENTS)</t>
+  </si>
+  <si>
+    <t>/m/0912c9</t>
   </si>
   <si>
     <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Bus</t>
@@ -52,10 +58,10 @@
     <t>/m/01bjv</t>
   </si>
   <si>
-    <t>Sounds of things &gt; Glass</t>
-  </si>
-  <si>
-    <t>/m/039jq</t>
+    <t>Sounds of things &gt; Glass &gt; Shatter</t>
+  </si>
+  <si>
+    <t>/m/07rn7sz</t>
   </si>
   <si>
     <t>Sounds of things &gt; Explosion &gt; Gunshot, gunfire</t>
@@ -64,6 +70,12 @@
     <t>/m/032s66</t>
   </si>
   <si>
+    <t>Sounds of things &gt; Explosion &gt; Fireworks</t>
+  </si>
+  <si>
+    <t>/m/0g6b5</t>
+  </si>
+  <si>
     <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Writing</t>
   </si>
   <si>
@@ -94,6 +106,12 @@
     <t>/m/0fqfqc</t>
   </si>
   <si>
+    <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Door &gt; Squeak (MULTIPLE PARENTS)</t>
+  </si>
+  <si>
+    <t>/m/07q6cd_</t>
+  </si>
+  <si>
     <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Door &gt; Knock (MULTIPLE PARENTS)</t>
   </si>
   <si>
@@ -160,6 +178,12 @@
     <t>/m/06rvn</t>
   </si>
   <si>
+    <t>Music &gt; Musical instrument &gt; Percussion &gt; Drum &gt; Bass drum</t>
+  </si>
+  <si>
+    <t>/m/0bm02</t>
+  </si>
+  <si>
     <t>Music &gt; Musical instrument &gt; Percussion &gt; Cymbal &gt; Hi-hat</t>
   </si>
   <si>
@@ -202,10 +226,10 @@
     <t>/m/01xqw</t>
   </si>
   <si>
-    <t>Music &gt; Musical instrument &gt; Bell &gt; Chime &gt; Wind chime (MULTIPLE PARENTS)</t>
-  </si>
-  <si>
-    <t>/m/026fgl</t>
+    <t>Music &gt; Musical instrument &gt; Bell &gt; Chime (MULTIPLE PARENTS)</t>
+  </si>
+  <si>
+    <t>/m/0f8s22</t>
   </si>
   <si>
     <t>Human sounds &gt; Respiratory sounds &gt; Cough</t>
@@ -214,12 +238,6 @@
     <t>/m/01b_21</t>
   </si>
   <si>
-    <t>Human sounds &gt; Human voice &gt; Speech</t>
-  </si>
-  <si>
-    <t>/m/09x0r</t>
-  </si>
-  <si>
     <t>Human sounds &gt; Human voice &gt; Laughter</t>
   </si>
   <si>
@@ -244,16 +262,28 @@
     <t>/m/02_nn</t>
   </si>
   <si>
-    <t>Channel, environment and background &gt; Acoustic environment</t>
-  </si>
-  <si>
-    <t>/t/dd00093</t>
-  </si>
-  <si>
-    <t>Animal &gt; Domestic animals, pets &gt; Dog</t>
-  </si>
-  <si>
-    <t>/m/0bt9lr</t>
+    <t>Human sounds &gt; Digestive &gt; Burping, eructation</t>
+  </si>
+  <si>
+    <t>/m/03q5_w</t>
+  </si>
+  <si>
+    <t>Animal &gt; Livestock, farm animals, working animals &gt; Cattle, bovinae &gt; Cowbell (MULTIPLE PARENTS)</t>
+  </si>
+  <si>
+    <t>/m/0239kh</t>
+  </si>
+  <si>
+    <t>Animal &gt; Domestic animals, pets &gt; Dog &gt; Bark</t>
+  </si>
+  <si>
+    <t>/m/05tny_</t>
+  </si>
+  <si>
+    <t>Animal &gt; Domestic animals, pets &gt; Cat &gt; Meow</t>
+  </si>
+  <si>
+    <t>/m/07qrkrw</t>
   </si>
 </sst>
 </file>
@@ -585,7 +615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>10012</v>
+        <v>10946</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -630,19 +660,19 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>569</v>
+        <v>449</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -653,19 +683,19 @@
         <v>11</v>
       </c>
       <c r="C4">
+        <v>54</v>
+      </c>
+      <c r="D4">
         <v>40</v>
       </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
       <c r="E4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -676,19 +706,19 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>1464</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>277</v>
+        <v>124</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -699,19 +729,19 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>473</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="G6">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -722,19 +752,19 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="D7">
-        <v>247</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="G7">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -745,19 +775,19 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>290</v>
       </c>
       <c r="E8">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>121</v>
+        <v>290</v>
       </c>
       <c r="G8">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -768,19 +798,19 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>244</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>101</v>
+        <v>297</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -791,19 +821,19 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -814,19 +844,19 @@
         <v>25</v>
       </c>
       <c r="C11">
+        <v>55</v>
+      </c>
+      <c r="D11">
         <v>44</v>
       </c>
-      <c r="D11">
-        <v>133</v>
-      </c>
       <c r="E11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -837,19 +867,19 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>307</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12">
-        <v>299</v>
+        <v>154</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -860,19 +890,19 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="G13">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -883,19 +913,19 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>256</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>1961</v>
+        <v>1378</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G14">
-        <v>110</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -906,19 +936,19 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G15">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -929,19 +959,19 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D16">
-        <v>1165</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>297</v>
+        <v>128</v>
       </c>
       <c r="G16">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -952,19 +982,19 @@
         <v>37</v>
       </c>
       <c r="C17">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="D17">
-        <v>1620</v>
+        <v>1961</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G17">
-        <v>56</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -975,19 +1005,19 @@
         <v>39</v>
       </c>
       <c r="C18">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D18">
-        <v>1664</v>
+        <v>200</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G18">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -998,19 +1028,19 @@
         <v>41</v>
       </c>
       <c r="C19">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="D19">
-        <v>133</v>
+        <v>1167</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>227</v>
+        <v>299</v>
       </c>
       <c r="G19">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1021,19 +1051,19 @@
         <v>43</v>
       </c>
       <c r="C20">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="D20">
-        <v>52</v>
+        <v>1620</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>115</v>
+        <v>298</v>
       </c>
       <c r="G20">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1044,19 +1074,19 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="D21">
-        <v>297</v>
+        <v>1666</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F21">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G21">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1067,19 +1097,19 @@
         <v>47</v>
       </c>
       <c r="C22">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D22">
-        <v>6597</v>
+        <v>133</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>296</v>
+        <v>227</v>
       </c>
       <c r="G22">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1090,19 +1120,19 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D23">
-        <v>1140</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="G23">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1113,19 +1143,19 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="G24">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1136,19 +1166,19 @@
         <v>53</v>
       </c>
       <c r="C25">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D25">
-        <v>130</v>
+        <v>6564</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F25">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="G25">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1159,19 +1189,19 @@
         <v>55</v>
       </c>
       <c r="C26">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D26">
-        <v>1401</v>
+        <v>2811</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F26">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="G26">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1182,19 +1212,19 @@
         <v>57</v>
       </c>
       <c r="C27">
-        <v>260</v>
+        <v>61</v>
       </c>
       <c r="D27">
-        <v>1604</v>
+        <v>1105</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G27">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1205,19 +1235,19 @@
         <v>59</v>
       </c>
       <c r="C28">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D28">
-        <v>327</v>
+        <v>74</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>300</v>
+        <v>149</v>
       </c>
       <c r="G28">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1228,19 +1258,19 @@
         <v>61</v>
       </c>
       <c r="C29">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="D29">
-        <v>1126</v>
+        <v>130</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>299</v>
+        <v>182</v>
       </c>
       <c r="G29">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1251,19 +1281,19 @@
         <v>63</v>
       </c>
       <c r="C30">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D30">
-        <v>78</v>
+        <v>1405</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>114</v>
+        <v>294</v>
       </c>
       <c r="G30">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1274,19 +1304,19 @@
         <v>65</v>
       </c>
       <c r="C31">
-        <v>66</v>
+        <v>259</v>
       </c>
       <c r="D31">
-        <v>186</v>
+        <v>1601</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="G31">
-        <v>28</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1297,19 +1327,19 @@
         <v>67</v>
       </c>
       <c r="C32">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="D32">
-        <v>1334</v>
+        <v>326</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G32">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1320,19 +1350,19 @@
         <v>69</v>
       </c>
       <c r="C33">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="D33">
-        <v>871</v>
+        <v>1126</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="G33">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1343,19 +1373,19 @@
         <v>71</v>
       </c>
       <c r="C34">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D34">
-        <v>344</v>
+        <v>74</v>
       </c>
       <c r="E34">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F34">
-        <v>292</v>
+        <v>131</v>
       </c>
       <c r="G34">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1366,19 +1396,19 @@
         <v>73</v>
       </c>
       <c r="C35">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D35">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F35">
-        <v>116</v>
+        <v>252</v>
       </c>
       <c r="G35">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1389,19 +1419,19 @@
         <v>75</v>
       </c>
       <c r="C36">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="D36">
-        <v>622</v>
+        <v>880</v>
       </c>
       <c r="E36">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F36">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G36">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1412,19 +1442,19 @@
         <v>77</v>
       </c>
       <c r="C37">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="D37">
-        <v>2248</v>
+        <v>336</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F37">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="G37">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1435,19 +1465,134 @@
         <v>79</v>
       </c>
       <c r="C38">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D38">
-        <v>497</v>
+        <v>35</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>298</v>
+        <v>115</v>
       </c>
       <c r="G38">
-        <v>31</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39">
+        <v>67</v>
+      </c>
+      <c r="D39">
+        <v>620</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>296</v>
+      </c>
+      <c r="G39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40">
+        <v>78</v>
+      </c>
+      <c r="D40">
+        <v>133</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>211</v>
+      </c>
+      <c r="G40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41">
+        <v>59</v>
+      </c>
+      <c r="D41">
+        <v>155</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>214</v>
+      </c>
+      <c r="G41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42">
+        <v>54</v>
+      </c>
+      <c r="D42">
+        <v>217</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>271</v>
+      </c>
+      <c r="G42">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>116</v>
+      </c>
+      <c r="E43">
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <v>169</v>
+      </c>
+      <c r="G43">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/kaggle3/list_categories_dataset_draft.xlsx
+++ b/kaggle3/list_categories_dataset_draft.xlsx
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>10946</v>
+        <v>11089</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -660,16 +660,16 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="G3">
         <v>30</v>
@@ -706,7 +706,7 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>77</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -732,7 +732,7 @@
         <v>51</v>
       </c>
       <c r="D6">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -752,7 +752,7 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -761,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G7">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -775,16 +775,16 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="F8">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="G8">
         <v>22</v>
@@ -798,19 +798,19 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -844,7 +844,7 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>44</v>
@@ -853,10 +853,10 @@
         <v>4</v>
       </c>
       <c r="F11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -870,13 +870,13 @@
         <v>60</v>
       </c>
       <c r="D12">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G12">
         <v>26</v>
@@ -916,13 +916,13 @@
         <v>54</v>
       </c>
       <c r="D14">
-        <v>1378</v>
+        <v>1307</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="F14">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <v>24</v>
@@ -939,7 +939,7 @@
         <v>53</v>
       </c>
       <c r="D15">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -985,13 +985,13 @@
         <v>256</v>
       </c>
       <c r="D17">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G17">
         <v>110</v>
@@ -1031,13 +1031,13 @@
         <v>130</v>
       </c>
       <c r="D19">
-        <v>1167</v>
+        <v>1149</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G19">
         <v>56</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G20">
         <v>56</v>
@@ -1077,7 +1077,7 @@
         <v>106</v>
       </c>
       <c r="D21">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E21">
         <v>13</v>
@@ -1100,13 +1100,13 @@
         <v>94</v>
       </c>
       <c r="D22">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G22">
         <v>41</v>
@@ -1169,13 +1169,13 @@
         <v>76</v>
       </c>
       <c r="D25">
-        <v>6564</v>
+        <v>6168</v>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F25">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="G25">
         <v>33</v>
@@ -1189,19 +1189,19 @@
         <v>55</v>
       </c>
       <c r="C26">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26">
-        <v>2811</v>
+        <v>2379</v>
       </c>
       <c r="E26">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F26">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="G26">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1215,13 +1215,13 @@
         <v>61</v>
       </c>
       <c r="D27">
-        <v>1105</v>
+        <v>1055</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="G27">
         <v>26</v>
@@ -1261,13 +1261,13 @@
         <v>52</v>
       </c>
       <c r="D29">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -1284,13 +1284,13 @@
         <v>56</v>
       </c>
       <c r="D30">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G30">
         <v>24</v>
@@ -1304,19 +1304,19 @@
         <v>65</v>
       </c>
       <c r="C31">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D31">
-        <v>1601</v>
+        <v>1516</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G31">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1330,13 +1330,13 @@
         <v>53</v>
       </c>
       <c r="D32">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G32">
         <v>23</v>
@@ -1353,13 +1353,13 @@
         <v>127</v>
       </c>
       <c r="D33">
-        <v>1126</v>
+        <v>1107</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G33">
         <v>54</v>
@@ -1396,7 +1396,7 @@
         <v>73</v>
       </c>
       <c r="C35">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35">
         <v>186</v>
@@ -1405,7 +1405,7 @@
         <v>12</v>
       </c>
       <c r="F35">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G35">
         <v>28</v>
@@ -1422,13 +1422,13 @@
         <v>102</v>
       </c>
       <c r="D36">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="E36">
         <v>13</v>
       </c>
       <c r="F36">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G36">
         <v>44</v>
@@ -1445,13 +1445,13 @@
         <v>49</v>
       </c>
       <c r="D37">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E37">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F37">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G37">
         <v>21</v>
@@ -1491,13 +1491,13 @@
         <v>67</v>
       </c>
       <c r="D39">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="E39">
         <v>7</v>
       </c>
       <c r="F39">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G39">
         <v>29</v>
@@ -1511,19 +1511,19 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G40">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1537,13 +1537,13 @@
         <v>59</v>
       </c>
       <c r="D41">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G41">
         <v>25</v>

--- a/kaggle3/list_categories_dataset_draft.xlsx
+++ b/kaggle3/list_categories_dataset_draft.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Total number of sounds in final dataset</t>
   </si>
@@ -40,16 +40,10 @@
     <t>num eval</t>
   </si>
   <si>
-    <t>Source-ambiguous sounds &gt; Deformable shell &gt; Tearing</t>
-  </si>
-  <si>
-    <t>/m/07qcx4z</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Car &gt; Vehicle horn, car horn, honking (MULTIPLE PARENTS)</t>
-  </si>
-  <si>
-    <t>/m/0912c9</t>
+    <t>Source-ambiguous sounds &gt; Deformable shell</t>
+  </si>
+  <si>
+    <t>/t/dd00110</t>
   </si>
   <si>
     <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Bus</t>
@@ -88,12 +82,24 @@
     <t>/m/01m2v</t>
   </si>
   <si>
+    <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Scissors</t>
+  </si>
+  <si>
+    <t>/m/01lsmm</t>
+  </si>
+  <si>
     <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Microwave oven</t>
   </si>
   <si>
     <t>/m/0fx9l</t>
   </si>
   <si>
+    <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Keys jangling</t>
+  </si>
+  <si>
+    <t>/m/03v3yw</t>
+  </si>
+  <si>
     <t>Sounds of things &gt; Domestic sounds, home sounds &gt; Drawer open or close</t>
   </si>
   <si>
@@ -172,6 +178,12 @@
     <t>/m/06rvn</t>
   </si>
   <si>
+    <t>Music &gt; Musical instrument &gt; Percussion &gt; Drum &gt; Bass drum</t>
+  </si>
+  <si>
+    <t>/m/0bm02</t>
+  </si>
+  <si>
     <t>Music &gt; Musical instrument &gt; Percussion &gt; Cymbal &gt; Hi-hat</t>
   </si>
   <si>
@@ -218,6 +230,12 @@
   </si>
   <si>
     <t>/m/0f8s22</t>
+  </si>
+  <si>
+    <t>Music &gt; Musical concepts &gt; Beat</t>
+  </si>
+  <si>
+    <t>/m/022c7z</t>
   </si>
   <si>
     <t>Human sounds &gt; Respiratory sounds &gt; Cough</t>
@@ -603,7 +621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -614,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>10636</v>
+        <v>11196</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -648,19 +666,19 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D3">
-        <v>399</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>300</v>
+        <v>117</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -671,16 +689,16 @@
         <v>11</v>
       </c>
       <c r="C4">
+        <v>57</v>
+      </c>
+      <c r="D4">
         <v>54</v>
       </c>
-      <c r="D4">
-        <v>38</v>
-      </c>
       <c r="E4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="G4">
         <v>24</v>
@@ -694,19 +712,19 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>77</v>
+        <v>421</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>122</v>
+        <v>300</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -717,19 +735,19 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="D6">
-        <v>423</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>300</v>
+        <v>147</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -740,19 +758,19 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="G7">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -763,16 +781,16 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="G8">
         <v>29</v>
@@ -786,19 +804,19 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>269</v>
+        <v>119</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -809,19 +827,19 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="G10">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -832,19 +850,19 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -855,19 +873,19 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D12">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="G12">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -878,19 +896,19 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13">
-        <v>1280</v>
+        <v>91</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>300</v>
+        <v>158</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -901,19 +919,19 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D14">
-        <v>189</v>
+        <v>1281</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="G14">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -924,19 +942,19 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>188</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>128</v>
+        <v>278</v>
       </c>
       <c r="G15">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -947,19 +965,19 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="D16">
-        <v>1960</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="G16">
-        <v>110</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -970,19 +988,19 @@
         <v>37</v>
       </c>
       <c r="C17">
-        <v>99</v>
+        <v>256</v>
       </c>
       <c r="D17">
-        <v>200</v>
+        <v>1960</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G17">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -993,19 +1011,19 @@
         <v>39</v>
       </c>
       <c r="C18">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D18">
-        <v>1149</v>
+        <v>200</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G18">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1016,19 +1034,19 @@
         <v>41</v>
       </c>
       <c r="C19">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D19">
-        <v>1620</v>
+        <v>1150</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>300</v>
       </c>
       <c r="G19">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1039,19 +1057,19 @@
         <v>43</v>
       </c>
       <c r="C20">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="D20">
-        <v>1659</v>
+        <v>1621</v>
       </c>
       <c r="E20">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>300</v>
       </c>
       <c r="G20">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1062,19 +1080,19 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D21">
-        <v>127</v>
+        <v>1612</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F21">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="G21">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1085,19 +1103,19 @@
         <v>47</v>
       </c>
       <c r="C22">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="G22">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1108,19 +1126,19 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D23">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>292</v>
+        <v>93</v>
       </c>
       <c r="G23">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1131,19 +1149,19 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D24">
-        <v>6588</v>
+        <v>205</v>
       </c>
       <c r="E24">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G24">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1154,19 +1172,19 @@
         <v>53</v>
       </c>
       <c r="C25">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D25">
-        <v>1047</v>
+        <v>5997</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>300</v>
       </c>
       <c r="G25">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1177,19 +1195,19 @@
         <v>55</v>
       </c>
       <c r="C26">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D26">
-        <v>74</v>
+        <v>1805</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F26">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="G26">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1200,19 +1218,19 @@
         <v>57</v>
       </c>
       <c r="C27">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D27">
-        <v>77</v>
+        <v>939</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="G27">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1223,19 +1241,19 @@
         <v>59</v>
       </c>
       <c r="C28">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D28">
-        <v>1347</v>
+        <v>76</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>300</v>
+        <v>149</v>
       </c>
       <c r="G28">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1246,19 +1264,19 @@
         <v>61</v>
       </c>
       <c r="C29">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="D29">
-        <v>1516</v>
+        <v>76</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>300</v>
+        <v>161</v>
       </c>
       <c r="G29">
-        <v>108</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1269,10 +1287,10 @@
         <v>63</v>
       </c>
       <c r="C30">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D30">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1281,7 +1299,7 @@
         <v>300</v>
       </c>
       <c r="G30">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1292,19 +1310,19 @@
         <v>65</v>
       </c>
       <c r="C31">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="D31">
-        <v>1107</v>
+        <v>1512</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>300</v>
       </c>
       <c r="G31">
-        <v>54</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1315,19 +1333,19 @@
         <v>67</v>
       </c>
       <c r="C32">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D32">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="G32">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1338,19 +1356,19 @@
         <v>69</v>
       </c>
       <c r="C33">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="D33">
-        <v>186</v>
+        <v>1107</v>
       </c>
       <c r="E33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="G33">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1361,19 +1379,19 @@
         <v>71</v>
       </c>
       <c r="C34">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="D34">
-        <v>865</v>
+        <v>48</v>
       </c>
       <c r="E34">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F34">
-        <v>300</v>
+        <v>114</v>
       </c>
       <c r="G34">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1384,19 +1402,19 @@
         <v>73</v>
       </c>
       <c r="C35">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>295</v>
+        <v>4794</v>
       </c>
       <c r="E35">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>300</v>
       </c>
       <c r="G35">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1407,19 +1425,19 @@
         <v>75</v>
       </c>
       <c r="C36">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F36">
-        <v>115</v>
+        <v>243</v>
       </c>
       <c r="G36">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1430,19 +1448,19 @@
         <v>77</v>
       </c>
       <c r="C37">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D37">
-        <v>614</v>
+        <v>877</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F37">
         <v>300</v>
       </c>
       <c r="G37">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1453,19 +1471,19 @@
         <v>79</v>
       </c>
       <c r="C38">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D38">
-        <v>132</v>
+        <v>288</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F38">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G38">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1476,19 +1494,19 @@
         <v>81</v>
       </c>
       <c r="C39">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D39">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="G39">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1499,19 +1517,19 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>216</v>
+        <v>527</v>
       </c>
       <c r="E40">
         <v>5</v>
       </c>
       <c r="F40">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="G40">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1522,19 +1540,88 @@
         <v>85</v>
       </c>
       <c r="C41">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D41">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>210</v>
+      </c>
+      <c r="G41">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42">
+        <v>96</v>
+      </c>
+      <c r="D42">
+        <v>92</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>188</v>
+      </c>
+      <c r="G42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43">
+        <v>66</v>
+      </c>
+      <c r="D43">
+        <v>172</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>238</v>
+      </c>
+      <c r="G43">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44">
+        <v>68</v>
+      </c>
+      <c r="D44">
+        <v>86</v>
+      </c>
+      <c r="E44">
         <v>15</v>
       </c>
-      <c r="F41">
-        <v>151</v>
-      </c>
-      <c r="G41">
-        <v>31</v>
+      <c r="F44">
+        <v>154</v>
+      </c>
+      <c r="G44">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/kaggle3/list_categories_dataset_draft.xlsx
+++ b/kaggle3/list_categories_dataset_draft.xlsx
@@ -40,10 +40,10 @@
     <t>num eval</t>
   </si>
   <si>
-    <t>Source-ambiguous sounds &gt; Deformable shell</t>
-  </si>
-  <si>
-    <t>/t/dd00110</t>
+    <t>Source-ambiguous sounds &gt; Deformable shell &gt; Tearing</t>
+  </si>
+  <si>
+    <t>/m/07qcx4z</t>
   </si>
   <si>
     <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Bus</t>
@@ -52,6 +52,12 @@
     <t>/m/01bjv</t>
   </si>
   <si>
+    <t>Sounds of things &gt; Miscellaneous sources &gt; Arrow &gt; Thump, thud (MULTIPLE PARENTS)</t>
+  </si>
+  <si>
+    <t>/m/07qnq_y</t>
+  </si>
+  <si>
     <t>Sounds of things &gt; Glass &gt; Shatter</t>
   </si>
   <si>
@@ -230,12 +236,6 @@
   </si>
   <si>
     <t>/m/0f8s22</t>
-  </si>
-  <si>
-    <t>Music &gt; Musical concepts &gt; Beat</t>
-  </si>
-  <si>
-    <t>/m/022c7z</t>
   </si>
   <si>
     <t>Human sounds &gt; Respiratory sounds &gt; Cough</t>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>11196</v>
+        <v>11387</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -666,19 +666,19 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>330</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>117</v>
+        <v>300</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -712,19 +712,19 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>421</v>
+        <v>341</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>300</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -735,19 +735,19 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>421</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -758,19 +758,19 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="D7">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>300</v>
+        <v>147</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -781,19 +781,19 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D8">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="G8">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -804,19 +804,19 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>119</v>
+        <v>270</v>
       </c>
       <c r="G9">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -827,19 +827,19 @@
         <v>23</v>
       </c>
       <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="D10">
         <v>59</v>
       </c>
-      <c r="D10">
-        <v>37</v>
-      </c>
       <c r="E10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -850,19 +850,19 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D11">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="G11">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -873,19 +873,19 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -896,19 +896,19 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D13">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G13">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -919,19 +919,19 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>1281</v>
+        <v>91</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>300</v>
+        <v>158</v>
       </c>
       <c r="G14">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -942,19 +942,19 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D15">
-        <v>188</v>
+        <v>1262</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="G15">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -965,19 +965,19 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="G16">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -988,19 +988,19 @@
         <v>37</v>
       </c>
       <c r="C17">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="D17">
-        <v>1960</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="G17">
-        <v>110</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1011,19 +1011,19 @@
         <v>39</v>
       </c>
       <c r="C18">
-        <v>99</v>
+        <v>256</v>
       </c>
       <c r="D18">
-        <v>200</v>
+        <v>1960</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G18">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1034,19 +1034,19 @@
         <v>41</v>
       </c>
       <c r="C19">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D19">
-        <v>1150</v>
+        <v>200</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G19">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1057,19 +1057,19 @@
         <v>43</v>
       </c>
       <c r="C20">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20">
-        <v>1621</v>
+        <v>1151</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>300</v>
       </c>
       <c r="G20">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1080,19 +1080,19 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="D21">
-        <v>1612</v>
+        <v>1621</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>300</v>
       </c>
       <c r="G21">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1103,19 +1103,19 @@
         <v>47</v>
       </c>
       <c r="C22">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D22">
-        <v>124</v>
+        <v>1658</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F22">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="G22">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1126,19 +1126,19 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F23">
-        <v>93</v>
+        <v>221</v>
       </c>
       <c r="G23">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1149,19 +1149,19 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D24">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="G24">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1172,19 +1172,19 @@
         <v>53</v>
       </c>
       <c r="C25">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D25">
-        <v>5997</v>
+        <v>207</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G25">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1195,19 +1195,19 @@
         <v>55</v>
       </c>
       <c r="C26">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D26">
-        <v>1805</v>
+        <v>6172</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F26">
         <v>300</v>
       </c>
       <c r="G26">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1218,19 +1218,19 @@
         <v>57</v>
       </c>
       <c r="C27">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D27">
-        <v>939</v>
+        <v>2257</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>300</v>
       </c>
       <c r="G27">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1241,19 +1241,19 @@
         <v>59</v>
       </c>
       <c r="C28">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D28">
-        <v>76</v>
+        <v>1002</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="G28">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1264,7 +1264,7 @@
         <v>61</v>
       </c>
       <c r="C29">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D29">
         <v>76</v>
@@ -1273,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G29">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1287,19 +1287,19 @@
         <v>63</v>
       </c>
       <c r="C30">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30">
-        <v>1347</v>
+        <v>77</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>300</v>
+        <v>162</v>
       </c>
       <c r="G30">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1310,19 +1310,19 @@
         <v>65</v>
       </c>
       <c r="C31">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="D31">
-        <v>1512</v>
+        <v>1319</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>300</v>
       </c>
       <c r="G31">
-        <v>108</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1333,19 +1333,19 @@
         <v>67</v>
       </c>
       <c r="C32">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="D32">
-        <v>265</v>
+        <v>1517</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>300</v>
       </c>
       <c r="G32">
-        <v>40</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1356,10 +1356,10 @@
         <v>69</v>
       </c>
       <c r="C33">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D33">
-        <v>1107</v>
+        <v>265</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>300</v>
       </c>
       <c r="G33">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1379,19 +1379,19 @@
         <v>71</v>
       </c>
       <c r="C34">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="D34">
-        <v>48</v>
+        <v>1107</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>114</v>
+        <v>300</v>
       </c>
       <c r="G34">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1402,19 +1402,19 @@
         <v>73</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D35">
-        <v>4794</v>
+        <v>49</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F35">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="G35">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1451,7 +1451,7 @@
         <v>88</v>
       </c>
       <c r="D37">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="E37">
         <v>13</v>
@@ -1497,13 +1497,13 @@
         <v>78</v>
       </c>
       <c r="D39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
       <c r="F39">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G39">
         <v>34</v>
@@ -1517,19 +1517,19 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D40">
-        <v>527</v>
+        <v>599</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F40">
         <v>300</v>
       </c>
       <c r="G40">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1566,13 +1566,13 @@
         <v>96</v>
       </c>
       <c r="D42">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G42">
         <v>42</v>

--- a/kaggle3/list_categories_dataset_draft.xlsx
+++ b/kaggle3/list_categories_dataset_draft.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Total number of sounds in final dataset</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t>/m/01bjv</t>
-  </si>
-  <si>
-    <t>Sounds of things &gt; Miscellaneous sources &gt; Arrow &gt; Thump, thud (MULTIPLE PARENTS)</t>
-  </si>
-  <si>
-    <t>/m/07qnq_y</t>
   </si>
   <si>
     <t>Sounds of things &gt; Glass &gt; Shatter</t>
@@ -621,7 +615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>11387</v>
+        <v>11076</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -712,19 +706,19 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>341</v>
+        <v>421</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>300</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -735,19 +729,19 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D6">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>300</v>
+        <v>147</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -758,19 +752,19 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="G7">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -781,19 +775,19 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -804,19 +798,19 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>270</v>
+        <v>119</v>
       </c>
       <c r="G9">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -827,19 +821,19 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="G10">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -850,19 +844,19 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -873,19 +867,19 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D12">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G12">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -896,19 +890,19 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="G13">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -919,19 +913,19 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14">
-        <v>91</v>
+        <v>1279</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="G14">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -942,19 +936,19 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D15">
-        <v>1262</v>
+        <v>189</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -965,19 +959,19 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D16">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>272</v>
+        <v>120</v>
       </c>
       <c r="G16">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -988,19 +982,19 @@
         <v>37</v>
       </c>
       <c r="C17">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>1960</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="G17">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1011,19 +1005,19 @@
         <v>39</v>
       </c>
       <c r="C18">
-        <v>256</v>
+        <v>99</v>
       </c>
       <c r="D18">
-        <v>1960</v>
+        <v>200</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G18">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1034,19 +1028,19 @@
         <v>41</v>
       </c>
       <c r="C19">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D19">
-        <v>200</v>
+        <v>1151</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G19">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1057,19 +1051,19 @@
         <v>43</v>
       </c>
       <c r="C20">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D20">
-        <v>1151</v>
+        <v>1621</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>300</v>
       </c>
       <c r="G20">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1080,19 +1074,19 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D21">
-        <v>1621</v>
+        <v>1659</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F21">
         <v>300</v>
       </c>
       <c r="G21">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1103,19 +1097,19 @@
         <v>47</v>
       </c>
       <c r="C22">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D22">
-        <v>1658</v>
+        <v>129</v>
       </c>
       <c r="E22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="G22">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1126,19 +1120,19 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D23">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="G23">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1149,19 +1143,19 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>93</v>
+        <v>292</v>
       </c>
       <c r="G24">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1172,19 +1166,19 @@
         <v>53</v>
       </c>
       <c r="C25">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D25">
-        <v>207</v>
+        <v>6172</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F25">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="G25">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1195,19 +1189,19 @@
         <v>55</v>
       </c>
       <c r="C26">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D26">
-        <v>6172</v>
+        <v>2329</v>
       </c>
       <c r="E26">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26">
         <v>300</v>
       </c>
       <c r="G26">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1218,19 +1212,19 @@
         <v>57</v>
       </c>
       <c r="C27">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D27">
-        <v>2257</v>
+        <v>1002</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>300</v>
       </c>
       <c r="G27">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1241,19 +1235,19 @@
         <v>59</v>
       </c>
       <c r="C28">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D28">
-        <v>1002</v>
+        <v>76</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="G28">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1264,19 +1258,19 @@
         <v>61</v>
       </c>
       <c r="C29">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D29">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G29">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1287,19 +1281,19 @@
         <v>63</v>
       </c>
       <c r="C30">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30">
-        <v>77</v>
+        <v>1348</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="G30">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1310,19 +1304,19 @@
         <v>65</v>
       </c>
       <c r="C31">
-        <v>86</v>
+        <v>250</v>
       </c>
       <c r="D31">
-        <v>1319</v>
+        <v>1517</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>300</v>
       </c>
       <c r="G31">
-        <v>37</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1333,19 +1327,19 @@
         <v>67</v>
       </c>
       <c r="C32">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="D32">
-        <v>1517</v>
+        <v>265</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>300</v>
       </c>
       <c r="G32">
-        <v>108</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1356,10 +1350,10 @@
         <v>69</v>
       </c>
       <c r="C33">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D33">
-        <v>265</v>
+        <v>1107</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1368,7 +1362,7 @@
         <v>300</v>
       </c>
       <c r="G33">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1379,19 +1373,19 @@
         <v>71</v>
       </c>
       <c r="C34">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="D34">
-        <v>1107</v>
+        <v>49</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F34">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="G34">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1402,19 +1396,19 @@
         <v>73</v>
       </c>
       <c r="C35">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D35">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F35">
-        <v>115</v>
+        <v>243</v>
       </c>
       <c r="G35">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1425,19 +1419,19 @@
         <v>75</v>
       </c>
       <c r="C36">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D36">
-        <v>174</v>
+        <v>879</v>
       </c>
       <c r="E36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F36">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="G36">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1448,19 +1442,19 @@
         <v>77</v>
       </c>
       <c r="C37">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D37">
-        <v>879</v>
+        <v>288</v>
       </c>
       <c r="E37">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F37">
         <v>300</v>
       </c>
       <c r="G37">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1471,19 +1465,19 @@
         <v>79</v>
       </c>
       <c r="C38">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D38">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="E38">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>300</v>
+        <v>116</v>
       </c>
       <c r="G38">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1494,19 +1488,19 @@
         <v>81</v>
       </c>
       <c r="C39">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D39">
-        <v>38</v>
+        <v>599</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F39">
-        <v>116</v>
+        <v>300</v>
       </c>
       <c r="G39">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1517,19 +1511,19 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D40">
-        <v>599</v>
+        <v>135</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G40">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1540,19 +1534,19 @@
         <v>85</v>
       </c>
       <c r="C41">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D41">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="G41">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1563,19 +1557,19 @@
         <v>87</v>
       </c>
       <c r="C42">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D42">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="G42">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1586,41 +1580,18 @@
         <v>89</v>
       </c>
       <c r="C43">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D43">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F43">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c r="G43">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44">
-        <v>68</v>
-      </c>
-      <c r="D44">
-        <v>86</v>
-      </c>
-      <c r="E44">
-        <v>15</v>
-      </c>
-      <c r="F44">
-        <v>154</v>
-      </c>
-      <c r="G44">
         <v>30</v>
       </c>
     </row>

--- a/kaggle3/list_categories_dataset_draft.xlsx
+++ b/kaggle3/list_categories_dataset_draft.xlsx
@@ -40,10 +40,10 @@
     <t>num eval</t>
   </si>
   <si>
-    <t>Source-ambiguous sounds &gt; Deformable shell &gt; Tearing</t>
-  </si>
-  <si>
-    <t>/m/07qcx4z</t>
+    <t>Source-ambiguous sounds &gt; Deformable shell</t>
+  </si>
+  <si>
+    <t>/t/dd00110</t>
   </si>
   <si>
     <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Bus</t>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>11076</v>
+        <v>10903</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -660,19 +660,19 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="D3">
-        <v>330</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>300</v>
+        <v>111</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -683,19 +683,19 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -764,7 +764,7 @@
         <v>300</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -824,16 +824,16 @@
         <v>59</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
       <c r="F10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -867,19 +867,19 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -916,7 +916,7 @@
         <v>68</v>
       </c>
       <c r="D14">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1215,7 +1215,7 @@
         <v>89</v>
       </c>
       <c r="D27">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -1270,7 +1270,7 @@
         <v>162</v>
       </c>
       <c r="G29">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1514,13 +1514,13 @@
         <v>75</v>
       </c>
       <c r="D40">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G40">
         <v>32</v>

--- a/kaggle3/list_categories_dataset_draft.xlsx
+++ b/kaggle3/list_categories_dataset_draft.xlsx
@@ -40,10 +40,10 @@
     <t>num eval</t>
   </si>
   <si>
-    <t>Source-ambiguous sounds &gt; Deformable shell</t>
-  </si>
-  <si>
-    <t>/t/dd00110</t>
+    <t>Source-ambiguous sounds &gt; Deformable shell &gt; Tearing</t>
+  </si>
+  <si>
+    <t>/m/07qcx4z</t>
   </si>
   <si>
     <t>Sounds of things &gt; Vehicle &gt; Motor vehicle (road) &gt; Bus</t>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>10903</v>
+        <v>11069</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -660,19 +660,19 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>337</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -824,16 +824,16 @@
         <v>59</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
       <c r="F10">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -916,7 +916,7 @@
         <v>68</v>
       </c>
       <c r="D14">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1215,7 +1215,7 @@
         <v>89</v>
       </c>
       <c r="D27">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -1270,7 +1270,7 @@
         <v>162</v>
       </c>
       <c r="G29">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1514,13 +1514,13 @@
         <v>75</v>
       </c>
       <c r="D40">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G40">
         <v>32</v>

--- a/kaggle3/list_categories_dataset_draft.xlsx
+++ b/kaggle3/list_categories_dataset_draft.xlsx
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>11074</v>
+        <v>11073</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -695,7 +695,7 @@
         <v>109</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1373,7 +1373,7 @@
         <v>71</v>
       </c>
       <c r="C34">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34">
         <v>49</v>
@@ -1382,10 +1382,10 @@
         <v>6</v>
       </c>
       <c r="F34">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G34">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1465,19 +1465,19 @@
         <v>79</v>
       </c>
       <c r="C38">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
       <c r="F38">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G38">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:7">
